--- a/biology/Histoire de la zoologie et de la botanique/Fritz_Kränzlin/Fritz_Kränzlin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Fritz_Kränzlin/Fritz_Kränzlin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fritz_Kr%C3%A4nzlin</t>
+          <t>Fritz_Kränzlin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fritz Kränzlin (de son nom de baptême Friedrich Wilhelm Ludwig Kränzlin, ou Kraenzlin), né le 25 juillet 1847 à Magdebourg et mort le 9 mars 1934 à Krüssau, est un botaniste allemand.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fritz_Kr%C3%A4nzlin</t>
+          <t>Fritz_Kränzlin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il naît à Magdebourg en 1847. Il est Doctor Philosophiæ à l'université de Berlin en 1891. Il marqua son époque dans le domaine de l'étude des orchidées, notamment celles d'Afrique du Sud. Après Reichenbach, dont il fut le continuateur, il se voua à leur étude, décrivant de nouvelles espèces et révisant les genres. Son compendium intitulé Orchidacearum Genera et Species ne fut jamais achevé, mais le volume à propos des genres Habenaria, Disa, et Disperis le fut en 1901[1]. Il fut associé au musée d'histoire naturelle de Londres.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il naît à Magdebourg en 1847. Il est Doctor Philosophiæ à l'université de Berlin en 1891. Il marqua son époque dans le domaine de l'étude des orchidées, notamment celles d'Afrique du Sud. Après Reichenbach, dont il fut le continuateur, il se voua à leur étude, décrivant de nouvelles espèces et révisant les genres. Son compendium intitulé Orchidacearum Genera et Species ne fut jamais achevé, mais le volume à propos des genres Habenaria, Disa, et Disperis le fut en 1901. Il fut associé au musée d'histoire naturelle de Londres.
 Il meurt en 1934 à l'âge de quatre-vingt-six ans.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fritz_Kr%C3%A4nzlin</t>
+          <t>Fritz_Kränzlin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Reichenbach, H. G.; Kränzlin, F. W. L.; Xenia Orchidacea. Beiträge zur Kenntniss der Orchideen
 1897. Orchidacearum genera et species, ASIN B0014JHUH2
